--- a/DGE_CRED_Model/ExcelFiles/Data/National Accounts Vietnam.xlsx
+++ b/DGE_CRED_Model/ExcelFiles/Data/National Accounts Vietnam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/Vietnam_RBC_model/Spatial_Multisector-RBC-SOE-model_capital_sector_specific/ExcelFiles/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/Vietnam_RBC_model/DGE_CRED_Model/ExcelFiles/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{AF6CD096-D001-4173-9FA2-979FBFAD3DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF9A9FF4-5336-4995-8C28-77B6EC73A3B2}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{AF6CD096-D001-4173-9FA2-979FBFAD3DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4684236-7061-4BEA-91B2-34BEA1384A35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1680" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E03.01" sheetId="2" r:id="rId1"/>
@@ -191,6 +191,884 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'E03.01'!$R$4:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-10.350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.2099999999999937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2700000000000102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4707-4952-8DBD-26F6EA8A7A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="411124952"/>
+        <c:axId val="411129872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="411124952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411129872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411129872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411124952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1964055</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C3E656-4A02-40DF-8FAC-EF6402D57CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,12 +1370,12 @@
     <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -551,7 +1429,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2009</v>
       </c>
@@ -611,8 +1489,23 @@
         <f t="array" ref="S4:S13">TREND(R4:R13,A4:A13)</f>
         <v>-6.6129090909093975</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <f>G4-H4</f>
+        <v>-171662</v>
+      </c>
+      <c r="V4">
+        <f>CORREL(U5:U13,U4:U12)</f>
+        <v>0.75596209046803275</v>
+      </c>
+      <c r="W4" cm="1">
+        <f t="array" ref="W4:X4">LINEST(U5:U13,U4:U12)</f>
+        <v>0.69871273662984645</v>
+      </c>
+      <c r="X4">
+        <v>44601.468440718934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2010</v>
       </c>
@@ -671,8 +1564,19 @@
       <c r="S5">
         <v>-5.2378181818185112</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <f t="shared" ref="U5:U13" si="1">G5-H5</f>
+        <v>-177215</v>
+      </c>
+      <c r="W5" cm="1">
+        <f t="array" ref="W5:X9">LINEST(R5:R13,R4:R12,1,1)</f>
+        <v>0.63829908771579236</v>
+      </c>
+      <c r="X5">
+        <v>1.2174951175019104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2011</v>
       </c>
@@ -731,8 +1635,18 @@
       <c r="S6">
         <v>-3.8627272727276249</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>-114887</v>
+      </c>
+      <c r="W6">
+        <v>0.16121772652121177</v>
+      </c>
+      <c r="X6">
+        <v>0.82242059366294107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2012</v>
       </c>
@@ -791,8 +1705,18 @@
       <c r="S7">
         <v>-2.4876363636367387</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>113697</v>
+      </c>
+      <c r="W7">
+        <v>0.69129749152575659</v>
+      </c>
+      <c r="X7">
+        <v>2.433132956953449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2013</v>
       </c>
@@ -851,8 +1775,18 @@
       <c r="S8">
         <v>-1.1125454545458524</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>77350</v>
+      </c>
+      <c r="W8">
+        <v>15.675552701522816</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -911,8 +1845,18 @@
       <c r="S9">
         <v>0.26254545454503386</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>128965</v>
+      </c>
+      <c r="W9">
+        <v>92.801403652064181</v>
+      </c>
+      <c r="X9">
+        <v>41.440951903491246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2015</v>
       </c>
@@ -971,8 +1915,12 @@
       <c r="S10">
         <v>1.6376363636359201</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>33169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2016</v>
       </c>
@@ -1031,8 +1979,12 @@
       <c r="S11">
         <v>3.0127272727268064</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>115342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2017</v>
       </c>
@@ -1091,8 +2043,12 @@
       <c r="S12">
         <v>4.3878181818176927</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>140282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2018</v>
       </c>
@@ -1151,8 +2107,12 @@
       <c r="S13">
         <v>5.7629090909085789</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>186052.20999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>C13/10^5</f>
         <v>0.58546189999999998</v>
@@ -1165,7 +2125,7 @@
         <v>1.7080530774077698</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1176,78 +2136,223 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E20">
         <f>E4/B4</f>
         <v>0.34951571153066996</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E29" si="1">E5/B5</f>
+        <f t="shared" ref="E21:E29" si="2">E5/B5</f>
         <v>0.35693808774378682</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29750636718131718</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27243323589342394</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26675616905237398</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26832672398381252</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27676727733944023</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <f>O5/O4-1</f>
+        <v>5.4172767203513938E-2</v>
+      </c>
+      <c r="P26">
+        <f>P5/P4-1</f>
+        <v>1.9834710743801498E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2657805825928386</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <f>O27-O26</f>
+        <v>4.8466121685375008E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:P27" si="3">O6/O5-1</f>
+        <v>0.10263888888888895</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>4.1266674978182261E-2</v>
+      </c>
+      <c r="Q27">
+        <f>P27-P26</f>
+        <v>2.1431964234380763E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26582114373323878</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <f t="shared" ref="N28:N34" si="4">O28-O27</f>
+        <v>-9.4577420190060435E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:P28" si="5">O7/O6-1</f>
+        <v>8.0614686988285111E-3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>-8.3692528735632155E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:Q34" si="6">P28-P27</f>
+        <v>-0.12495920371381442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26533063780606841</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>3.6921662626924201E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:P29" si="7">O8/O7-1</f>
+        <v>4.4983131325752712E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>6.454984973213107E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>0.14824237846776323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
       </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>-1.1861045949691285E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:P30" si="8">O9/O8-1</f>
+        <v>3.3122085376061428E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>2.0375598379771764E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>-4.4174251352359306E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>5.9982849943089889E-3</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:P31" si="9">O10/O9-1</f>
+        <v>3.9120370370370416E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="9"/>
+        <v>7.0492000481173989E-2</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>5.0116402101402224E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>3.6508481638242163E-3</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:P32" si="10">O11/O10-1</f>
+        <v>4.2771218534194633E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>2.3261040566355806E-2</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>-4.7230959914818182E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>4.2360163649099558E-2</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:P33" si="11">O12/O11-1</f>
+        <v>8.5131382183294191E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>8.4889084120360225E-2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>6.1628043554004419E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>-4.3394990806190137E-2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:P34" si="12">O13/O12-1</f>
+        <v>4.1736391377104054E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="12"/>
+        <v>3.7250733879947262E-2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>-4.7638350240412963E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>